--- a/doc/接口使用.xlsx
+++ b/doc/接口使用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="24645" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>类型</t>
+  </si>
   <si>
     <t>接口名</t>
   </si>
@@ -24,7 +27,16 @@
     <t>Url</t>
   </si>
   <si>
+    <t>子项</t>
+  </si>
+  <si>
     <t>请求data</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>外部</t>
   </si>
   <si>
     <t>快递100</t>
@@ -35,6 +47,49 @@
   <si>
     <t>params={'type': 'yunda', 'postid': '3835494398576'}  type=dict
 headers={'Content-Type': 'application/json;charset=UTF-8'} type=dict</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>本服务</t>
+  </si>
+  <si>
+    <t>任务执行器</t>
+  </si>
+  <si>
+    <t>task_exector.py</t>
+  </si>
+  <si>
+    <t>api任务</t>
+  </si>
+  <si>
+    <t>{"id": 5662356461,
+            "type": "api",
+            "data": {"project": "pro1",
+                     "version": "0.0.1",
+                     "cases": [
+                         {"caseid": "api_001", "version": "0.01", "project": "wuliu", "api_name": "login",
+                          "url": "http://www.kuaidi100.com/query",
+                          "protocol": "http", "headers": {"Content-Type":"application/json;charset=UTF-8"}, "method": "post",
+                          "params":{"type":"yunda","postid":"3835494398576"},
+                          "data": '{"q":"w"}',
+                          "expected": {"type": "object",
+                                       "properties": {"nu": {"type": "string"}, "status": {"type": "string"},
+                                                      "data": {"type": "array"}}}},
+                         {"caseid": "api_001", "version": "0.01", "project": "wuliu", "api_name": "login",
+                          "url": "http://www.kuaidi100.com/query",
+                          "protocol": "http", "headers": {"Content-Type":"application/json;charset=UTF-8"}, "method": "post",
+                          "params":{"type":"yuantong","postid":"823753023765"},
+                          "data": '{"q":"w"}',
+                          "expected": {"type": "object",
+                                       "properties": {"nu": {"type": "string"}, "status": {"type": "string"},
+                                                      "data": {"type": "array"}}}}
+                     ]
+                     }}</t>
+  </si>
+  <si>
+    <t>ui任务</t>
   </si>
 </sst>
 </file>
@@ -42,12 +97,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,73 +120,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,24 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +195,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -192,6 +202,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -200,8 +217,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,37 +264,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,145 +360,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +455,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,45 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -475,11 +499,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,153 +529,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,21 +1063,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="119.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,21 +1089,72 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:3">
+    <row r="2" ht="27" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="351" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A13"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.kuaidi100.com/query"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.kuaidi100.com/query"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/接口使用.xlsx
+++ b/doc/接口使用.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12090"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="接口调用" sheetId="1" r:id="rId1"/>
+    <sheet name="平台使用" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>类型</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>本服务</t>
+  </si>
+  <si>
+    <t>任务数据组成：task={taskid:1111,data:{cases:[{..},{..}], ..}, ...}</t>
   </si>
   <si>
     <t>任务执行器</t>
@@ -91,6 +94,31 @@
   <si>
     <t>ui任务</t>
   </si>
+  <si>
+    <t>{"id": 5662356461,
+            "type": "ui",
+            "data": {"project": "lianjia",
+                     "version": "0.0.1",
+                     "cases": [
+                         {"suitename": "ui_lianjia_test_001", "version": "0.01", "project": "lianjia", "function": "login"},
+                         {"suitename": "ui_lianjia_test_001", "version": "0.01", "project": "lianjia", "function": "login"},
+                     ]
+                     }}</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>使用规则</t>
+  </si>
+  <si>
+    <t>ui用例匹配规则</t>
+  </si>
+  <si>
+    <t>通过用例名匹配
+用例名命名规则：类型_项目_功能_id.py
+(ui_lianjia_login_001.py)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,6 +154,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -133,38 +215,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,78 +247,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,17 +486,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,18 +542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,42 +561,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,145 +591,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,19 +1091,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="119.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="130" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1117,41 +1145,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="351" customHeight="1" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="4" ht="23" customHeight="1"/>
+    <row r="5" ht="23" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="319" customHeight="1" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="110" customHeight="1" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.kuaidi100.com/query"/>
@@ -1165,14 +1205,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/接口使用.xlsx
+++ b/doc/接口使用.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19935" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口调用" sheetId="1" r:id="rId1"/>
     <sheet name="平台使用" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>类型</t>
   </si>
@@ -118,6 +118,27 @@
     <t>通过用例名匹配
 用例名命名规则：类型_项目_功能_id.py
 (ui_lianjia_login_001.py)</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>功能点</t>
+  </si>
+  <si>
+    <t>功能说明</t>
+  </si>
+  <si>
+    <t>结果更新</t>
+  </si>
+  <si>
+    <t>实时上传case执行结果</t>
+  </si>
+  <si>
+    <t>每天case执行完成后，更新执行后信息到数据库</t>
   </si>
 </sst>
 </file>
@@ -733,9 +754,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1093,98 +1117,98 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="130" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="130" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="23" customHeight="1"/>
     <row r="5" ht="23" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="319" customHeight="1" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="110" customHeight="1" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1213,24 +1237,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1244,14 +1268,55 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/接口使用.xlsx
+++ b/doc/接口使用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8460" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="接口调用" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,8 @@
   </si>
   <si>
     <t>{"id": 5662356461,
-            "type": "api",
+ "type": "api",
+"slave":"1.1.1.1",
             "data": {"project": "pro1",
                      "version": "0.0.1",
                      "cases": [
@@ -96,7 +97,8 @@
   </si>
   <si>
     <t>{"id": 5662356461,
-            "type": "ui",
+ "type": "ui",
+"slave":"1.1.1.1",
             "data": {"project": "lianjia",
                      "version": "0.0.1",
                      "cases": [
@@ -313,6 +315,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,175 +483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,16 +626,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,10 +647,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,7 +671,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -678,88 +680,85 @@
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1117,98 +1116,98 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="130" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="130" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="23" customHeight="1"/>
     <row r="5" ht="23" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="319" customHeight="1" spans="2:6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="110" customHeight="1" spans="2:6">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1237,24 +1236,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1270,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/doc/接口使用.xlsx
+++ b/doc/接口使用.xlsx
@@ -68,44 +68,44 @@
   </si>
   <si>
     <t>{"id": 5662356461,
- "type": "api",
-"slave":"1.1.1.1",
-            "data": {"project": "pro1",
-                     "version": "0.0.1",
-                     "cases": [
-                         {"caseid": "api_001", "version": "0.01", "project": "wuliu", "api_name": "login",
-                          "url": "http://www.kuaidi100.com/query",
-                          "protocol": "http", "headers": {"Content-Type":"application/json;charset=UTF-8"}, "method": "post",
-                          "params":{"type":"yunda","postid":"3835494398576"},
-                          "data": '{"q":"w"}',
-                          "expected": {"type": "object",
-                                       "properties": {"nu": {"type": "string"}, "status": {"type": "string"},
-                                                      "data": {"type": "array"}}}},
-                         {"caseid": "api_001", "version": "0.01", "project": "wuliu", "api_name": "login",
-                          "url": "http://www.kuaidi100.com/query",
-                          "protocol": "http", "headers": {"Content-Type":"application/json;charset=UTF-8"}, "method": "post",
-                          "params":{"type":"yuantong","postid":"823753023765"},
-                          "data": '{"q":"w"}',
-                          "expected": {"type": "object",
-                                       "properties": {"nu": {"type": "string"}, "status": {"type": "string"},
-                                                      "data": {"type": "array"}}}}
+            "type": "api",
+            "slave": "1.1.1.1",
+            "version": "0.0.1",
+             "cases": [
+                     {"caseid": "api_00002",  "project": "wuliu", "api_name": "login",
+                      "url": "http://www.kuaidi100.com/query",
+                      "protocol": "http", "headers": {"Content-Type":"application/json;charset=UTF-8"}, "method": "post",
+                      "params":{"type":"yunda","postid":"3835494398576"},
+                      "data": '{"q":"w"}',
+                      "status":"unfinished",
+                      "expected": {"type": "object",
+                                   "properties": {"nu": {"type": "string"}, "status": {"type": "string"},
+                                                  "data": {"type": "array"}}}},
+                     {"caseid": "api_00001", "project": "wuliu", "api_name": "login",
+                      "url": "http://www.kuaidi100.com/query",
+                      "protocol": "http", "headers": {"Content-Type":"application/json;charset=UTF-8"}, "method": "post",
+                      "params":{"type":"yuantong","postid":"823753023765"},
+                      "data": '{"q":"w"}',
+                      "status":"unfinished",
+                      "expected": {"type": "object",
+                                   "properties": {"nu": {"type": "string"}, "status": {"type": "string"},
+                                                  "data": {"type": "array"}}}}
+                 ]
+                     }</t>
+  </si>
+  <si>
+    <t>ui任务</t>
+  </si>
+  <si>
+    <t>{"id": 5662356461,
+            "type": "ui",
+            "slave":"1.1.1.1",
+            "version": "0.0.1",
+             "cases": [
+                    {"suitename": "ui_lianjia_test_001", "project": "lianjia","function": "login","status":"unfinished"},
+                    {"suitename": "ui_lianjia_test_001","project": "lianjia", "function": "login","status":"unfinished"},
                      ]
-                     }}</t>
-  </si>
-  <si>
-    <t>ui任务</t>
-  </si>
-  <si>
-    <t>{"id": 5662356461,
- "type": "ui",
-"slave":"1.1.1.1",
-            "data": {"project": "lianjia",
-                     "version": "0.0.1",
-                     "cases": [
-                         {"suitename": "ui_lianjia_test_001", "version": "0.01", "project": "lianjia", "function": "login"},
-                         {"suitename": "ui_lianjia_test_001", "version": "0.01", "project": "lianjia", "function": "login"},
-                     ]
-                     }}</t>
+                     }</t>
   </si>
   <si>
     <t>项目</t>
@@ -148,9 +148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -170,13 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -200,44 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -263,6 +218,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -271,26 +234,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -298,7 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -315,6 +315,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,175 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,16 +626,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,115 +644,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>

--- a/doc/接口使用.xlsx
+++ b/doc/接口使用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="接口调用" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -170,9 +170,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +200,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +264,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,6 +279,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -241,59 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +315,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,169 +387,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,16 +509,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -533,16 +533,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -574,15 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,6 +592,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -614,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,16 +626,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,115 +644,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
